--- a/data/trans_orig/P70D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{427B4A40-B61B-43F0-B326-EC2F185481D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECF6E9E6-4D68-4F60-8EDE-F0BF88D11440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65B3E10B-2CA5-4A9C-B88E-54FE55C03B97}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86F427EB-EE51-434E-8B24-2AE16C663200}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10) en 2023 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -86,16 +86,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>97,82%</t>
   </si>
   <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,57%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,10 +122,10 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,49 +194,55 @@
     <t>5,32%</t>
   </si>
   <si>
-    <t>9,56%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>90,44%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,55 +251,55 @@
     <t>8,78%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,106 +308,106 @@
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -410,19 +416,19 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>2,01%</t>
@@ -431,31 +437,31 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>3,59%</t>
+    <t>3,64%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>96,41%</t>
+    <t>96,36%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -467,103 +473,109 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>95,69%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C0E2E9-0D2A-4238-A98C-C4CFB2C49B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A41498F-1D34-4BE1-8E54-D46D87C23B45}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1415,10 +1427,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1427,13 +1439,13 @@
         <v>12377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -1442,13 +1454,13 @@
         <v>20368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,13 +1475,13 @@
         <v>142246</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>152</v>
@@ -1478,13 +1490,13 @@
         <v>116016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>294</v>
@@ -1493,13 +1505,13 @@
         <v>258262</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,7 +1567,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1567,13 +1579,13 @@
         <v>15025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -1582,13 +1594,13 @@
         <v>17171</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -1597,13 +1609,13 @@
         <v>32196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,13 +1630,13 @@
         <v>156158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -1633,13 +1645,13 @@
         <v>177374</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>294</v>
@@ -1648,13 +1660,13 @@
         <v>333532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1722,13 +1734,13 @@
         <v>4227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1737,13 +1749,13 @@
         <v>2576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -1752,13 +1764,13 @@
         <v>6803</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1785,13 @@
         <v>120800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
@@ -1788,13 +1800,13 @@
         <v>115267</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>396</v>
@@ -1803,13 +1815,13 @@
         <v>236067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1889,13 @@
         <v>13266</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -1892,13 +1904,13 @@
         <v>11202</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -1907,13 +1919,13 @@
         <v>24469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1940,13 @@
         <v>124306</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>111</v>
@@ -1943,13 +1955,13 @@
         <v>81743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>249</v>
@@ -1958,13 +1970,13 @@
         <v>206049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2032,13 +2044,13 @@
         <v>5509</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -2047,13 +2059,13 @@
         <v>7823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2062,13 +2074,13 @@
         <v>13332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2095,13 @@
         <v>331528</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>439</v>
@@ -2098,13 +2110,13 @@
         <v>319888</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>750</v>
@@ -2113,13 +2125,13 @@
         <v>651416</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2187,13 +2199,13 @@
         <v>18677</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2202,13 +2214,13 @@
         <v>32276</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -2217,13 +2229,13 @@
         <v>50953</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2250,13 @@
         <v>486033</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>342</v>
@@ -2253,13 +2265,13 @@
         <v>295782</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>708</v>
@@ -2268,13 +2280,13 @@
         <v>781815</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2354,13 @@
         <v>76281</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>121</v>
@@ -2357,13 +2369,13 @@
         <v>92964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>197</v>
@@ -2372,13 +2384,13 @@
         <v>169246</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2405,13 @@
         <v>1756879</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1914</v>
@@ -2408,13 +2420,13 @@
         <v>1410530</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>3511</v>
@@ -2423,13 +2435,13 @@
         <v>3167408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECF6E9E6-4D68-4F60-8EDE-F0BF88D11440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE27F3DB-C7FE-47BD-BC2B-081FA1566D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86F427EB-EE51-434E-8B24-2AE16C663200}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4C481A50-95D9-4FB3-B334-4149BE51B152}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10) en 2023 (Tasa respuesta: 42,41%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,334 +134,328 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -470,112 +464,106 @@
     <t>Sevilla</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A41498F-1D34-4BE1-8E54-D46D87C23B45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1CBB77-4509-4CC5-A9EE-D4DBFD19B132}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3547</v>
+        <v>4037</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>3965</v>
+        <v>4473</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1150,7 @@
         <v>197</v>
       </c>
       <c r="D5" s="7">
-        <v>159412</v>
+        <v>190164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1165,7 @@
         <v>256</v>
       </c>
       <c r="I5" s="7">
-        <v>134471</v>
+        <v>143896</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1180,7 @@
         <v>453</v>
       </c>
       <c r="N5" s="7">
-        <v>293884</v>
+        <v>334060</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1201,7 @@
         <v>202</v>
       </c>
       <c r="D6" s="7">
-        <v>162959</v>
+        <v>194201</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1216,7 @@
         <v>257</v>
       </c>
       <c r="I6" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1231,7 @@
         <v>459</v>
       </c>
       <c r="N6" s="7">
-        <v>297849</v>
+        <v>338533</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>8039</v>
+        <v>7893</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>9120</v>
+        <v>8627</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1284,7 @@
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>17159</v>
+        <v>16520</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1305,7 @@
         <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>236396</v>
+        <v>236049</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1320,7 @@
         <v>202</v>
       </c>
       <c r="I8" s="7">
-        <v>169990</v>
+        <v>158670</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1335,7 @@
         <v>367</v>
       </c>
       <c r="N8" s="7">
-        <v>406386</v>
+        <v>394720</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1356,7 @@
         <v>171</v>
       </c>
       <c r="D9" s="7">
-        <v>244435</v>
+        <v>243942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1371,7 @@
         <v>214</v>
       </c>
       <c r="I9" s="7">
-        <v>179110</v>
+        <v>167297</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1386,7 @@
         <v>385</v>
       </c>
       <c r="N9" s="7">
-        <v>423545</v>
+        <v>411240</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>7991</v>
+        <v>7640</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1424,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>12377</v>
+        <v>11636</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>20368</v>
+        <v>19276</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1460,7 @@
         <v>142</v>
       </c>
       <c r="D11" s="7">
-        <v>142246</v>
+        <v>140152</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1475,7 @@
         <v>152</v>
       </c>
       <c r="I11" s="7">
-        <v>116016</v>
+        <v>109226</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1490,7 @@
         <v>294</v>
       </c>
       <c r="N11" s="7">
-        <v>258262</v>
+        <v>249378</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1511,7 @@
         <v>151</v>
       </c>
       <c r="D12" s="7">
-        <v>150237</v>
+        <v>147792</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1526,7 @@
         <v>169</v>
       </c>
       <c r="I12" s="7">
-        <v>128393</v>
+        <v>120862</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1541,7 @@
         <v>320</v>
       </c>
       <c r="N12" s="7">
-        <v>278630</v>
+        <v>268654</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1564,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>15025</v>
+        <v>14708</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1591,7 +1579,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>17171</v>
+        <v>15770</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1606,7 +1594,7 @@
         <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>32196</v>
+        <v>30478</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1615,7 @@
         <v>114</v>
       </c>
       <c r="D14" s="7">
-        <v>156158</v>
+        <v>150739</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1642,7 +1630,7 @@
         <v>180</v>
       </c>
       <c r="I14" s="7">
-        <v>177374</v>
+        <v>242063</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1657,7 +1645,7 @@
         <v>294</v>
       </c>
       <c r="N14" s="7">
-        <v>333532</v>
+        <v>392802</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1678,7 +1666,7 @@
         <v>125</v>
       </c>
       <c r="D15" s="7">
-        <v>171183</v>
+        <v>165447</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1681,7 @@
         <v>201</v>
       </c>
       <c r="I15" s="7">
-        <v>194545</v>
+        <v>257833</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1696,7 @@
         <v>326</v>
       </c>
       <c r="N15" s="7">
-        <v>365728</v>
+        <v>423280</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>4227</v>
+        <v>3883</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1746,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>2576</v>
+        <v>2373</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1761,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>6803</v>
+        <v>6256</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1770,7 +1758,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,46 +1770,46 @@
         <v>164</v>
       </c>
       <c r="D17" s="7">
-        <v>120800</v>
+        <v>110356</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
       </c>
       <c r="I17" s="7">
-        <v>115267</v>
+        <v>104347</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>396</v>
       </c>
       <c r="N17" s="7">
-        <v>236067</v>
+        <v>214703</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1821,7 @@
         <v>171</v>
       </c>
       <c r="D18" s="7">
-        <v>125027</v>
+        <v>114239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1836,7 @@
         <v>239</v>
       </c>
       <c r="I18" s="7">
-        <v>117843</v>
+        <v>106720</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1851,7 @@
         <v>410</v>
       </c>
       <c r="N18" s="7">
-        <v>242870</v>
+        <v>220959</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1886,46 +1874,46 @@
         <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>13266</v>
+        <v>12706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>11202</v>
+        <v>10424</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>24469</v>
+        <v>23129</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,10 +1925,10 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>124306</v>
+        <v>121269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>116</v>
@@ -1952,7 +1940,7 @@
         <v>111</v>
       </c>
       <c r="I20" s="7">
-        <v>81743</v>
+        <v>75978</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -1967,7 +1955,7 @@
         <v>249</v>
       </c>
       <c r="N20" s="7">
-        <v>206049</v>
+        <v>197248</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -1988,7 +1976,7 @@
         <v>154</v>
       </c>
       <c r="D21" s="7">
-        <v>137572</v>
+        <v>133975</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +1991,7 @@
         <v>129</v>
       </c>
       <c r="I21" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2006,7 @@
         <v>283</v>
       </c>
       <c r="N21" s="7">
-        <v>230518</v>
+        <v>220377</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2041,46 +2029,46 @@
         <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>5509</v>
+        <v>5511</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>7823</v>
+        <v>7296</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>13332</v>
+        <v>12807</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2080,46 @@
         <v>311</v>
       </c>
       <c r="D23" s="7">
-        <v>331528</v>
+        <v>329975</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>439</v>
       </c>
       <c r="I23" s="7">
-        <v>319888</v>
+        <v>300119</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>750</v>
       </c>
       <c r="N23" s="7">
-        <v>651416</v>
+        <v>630093</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2131,7 @@
         <v>315</v>
       </c>
       <c r="D24" s="7">
-        <v>337037</v>
+        <v>335486</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2146,7 @@
         <v>450</v>
       </c>
       <c r="I24" s="7">
-        <v>327711</v>
+        <v>307415</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2161,7 @@
         <v>765</v>
       </c>
       <c r="N24" s="7">
-        <v>664748</v>
+        <v>642900</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2184,46 @@
         <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>18677</v>
+        <v>15751</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>32276</v>
+        <v>26448</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
       </c>
       <c r="N25" s="7">
-        <v>50953</v>
+        <v>42199</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2235,46 @@
         <v>366</v>
       </c>
       <c r="D26" s="7">
-        <v>486033</v>
+        <v>611375</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>342</v>
       </c>
       <c r="I26" s="7">
-        <v>295782</v>
+        <v>245563</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>708</v>
       </c>
       <c r="N26" s="7">
-        <v>781815</v>
+        <v>856938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2286,7 @@
         <v>384</v>
       </c>
       <c r="D27" s="7">
-        <v>504710</v>
+        <v>627126</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2301,7 @@
         <v>376</v>
       </c>
       <c r="I27" s="7">
-        <v>328058</v>
+        <v>272011</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2316,7 @@
         <v>760</v>
       </c>
       <c r="N27" s="7">
-        <v>832768</v>
+        <v>899137</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,46 +2339,46 @@
         <v>76</v>
       </c>
       <c r="D28" s="7">
-        <v>76281</v>
+        <v>72129</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>121</v>
       </c>
       <c r="I28" s="7">
-        <v>92964</v>
+        <v>83009</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>197</v>
       </c>
       <c r="N28" s="7">
-        <v>169246</v>
+        <v>155138</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,46 +2390,46 @@
         <v>1597</v>
       </c>
       <c r="D29" s="7">
-        <v>1756879</v>
+        <v>1890079</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>1914</v>
       </c>
       <c r="I29" s="7">
-        <v>1410530</v>
+        <v>1379863</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>3511</v>
       </c>
       <c r="N29" s="7">
-        <v>3167408</v>
+        <v>3269942</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2441,7 @@
         <v>1673</v>
       </c>
       <c r="D30" s="7">
-        <v>1833160</v>
+        <v>1962208</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2456,7 @@
         <v>2035</v>
       </c>
       <c r="I30" s="7">
-        <v>1503494</v>
+        <v>1462872</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2471,7 @@
         <v>3708</v>
       </c>
       <c r="N30" s="7">
-        <v>3336654</v>
+        <v>3425080</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
